--- a/IM_部署手册.xlsx
+++ b/IM_部署手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="安装软件" sheetId="1" r:id="rId1"/>
@@ -283,6 +283,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.打开网站【</t>
     </r>
     <r>
@@ -2601,7 +2608,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>		location /thirdLogin/ {</a:t>
+            <a:t>		location /thirdLogin {</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6646,7 +6653,7 @@
   <sheetPr/>
   <dimension ref="A1:M604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
